--- a/EDWARD MWIRIGI.xlsx
+++ b/EDWARD MWIRIGI.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="404">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -1252,6 +1252,9 @@
   </si>
   <si>
     <t>BETTY PAID LL</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -39648,8 +39651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39801,7 +39804,7 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="171" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="B7" s="166" t="s">
         <v>51</v>

--- a/EDWARD MWIRIGI.xlsx
+++ b/EDWARD MWIRIGI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="18195" windowHeight="11655" firstSheet="20" activeTab="24"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="18195" windowHeight="11655" firstSheet="22" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER 19" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="405">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -1254,7 +1254,10 @@
     <t>BETTY PAID LL</t>
   </si>
   <si>
-    <t>L</t>
+    <t>PAID ON 8/12</t>
+  </si>
+  <si>
+    <t>NJERI RODAH</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1269,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1569,13 +1572,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -1692,11 +1707,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2140,6 +2156,9 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="44" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2147,7 +2166,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -39651,8 +39671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39688,10 +39708,10 @@
       <c r="B2" s="158"/>
       <c r="C2" s="100"/>
       <c r="D2" s="235"/>
-      <c r="E2" s="237" t="s">
+      <c r="E2" s="238" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="237"/>
+      <c r="F2" s="238"/>
       <c r="G2" s="235"/>
       <c r="H2" s="101"/>
       <c r="I2" s="160"/>
@@ -39704,10 +39724,10 @@
       <c r="B3" s="100"/>
       <c r="C3" s="100"/>
       <c r="D3" s="235"/>
-      <c r="E3" s="237" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="237"/>
+      <c r="E3" s="238" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="238"/>
       <c r="G3" s="236"/>
       <c r="H3" s="102"/>
       <c r="I3" s="160"/>
@@ -39719,12 +39739,12 @@
       <c r="A4" s="100"/>
       <c r="B4" s="160"/>
       <c r="C4" s="158"/>
-      <c r="D4" s="238" t="s">
+      <c r="D4" s="239" t="s">
         <v>395</v>
       </c>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238"/>
-      <c r="G4" s="238"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
       <c r="H4" s="104"/>
       <c r="I4" s="104"/>
       <c r="J4" s="104"/>
@@ -39804,7 +39824,7 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="171" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B7" s="166" t="s">
         <v>51</v>
@@ -39979,10 +39999,12 @@
         <f t="shared" si="0"/>
         <v>7040</v>
       </c>
-      <c r="I12" s="169"/>
+      <c r="I12" s="169">
+        <v>7040</v>
+      </c>
       <c r="J12" s="169">
         <f t="shared" si="1"/>
-        <v>7040</v>
+        <v>0</v>
       </c>
       <c r="K12" s="169"/>
       <c r="L12" s="169"/>
@@ -40012,10 +40034,12 @@
         <f t="shared" si="0"/>
         <v>7108</v>
       </c>
-      <c r="I13" s="169"/>
+      <c r="I13" s="169">
+        <v>6800</v>
+      </c>
       <c r="J13" s="169">
         <f t="shared" si="1"/>
-        <v>7108</v>
+        <v>308</v>
       </c>
       <c r="K13" s="169"/>
       <c r="L13" s="169"/>
@@ -40045,10 +40069,12 @@
         <f t="shared" si="0"/>
         <v>7329</v>
       </c>
-      <c r="I14" s="169"/>
+      <c r="I14" s="169">
+        <v>7329</v>
+      </c>
       <c r="J14" s="169">
         <f>H14-I14</f>
-        <v>7329</v>
+        <v>0</v>
       </c>
       <c r="K14" s="169"/>
       <c r="L14" s="169"/>
@@ -40078,10 +40104,12 @@
         <f t="shared" si="0"/>
         <v>8215</v>
       </c>
-      <c r="I15" s="169"/>
+      <c r="I15" s="169">
+        <v>7074</v>
+      </c>
       <c r="J15" s="169">
         <f>H15-I15</f>
-        <v>8215</v>
+        <v>1141</v>
       </c>
       <c r="K15" s="169"/>
       <c r="L15" s="169"/>
@@ -40112,14 +40140,16 @@
         <v>7104</v>
       </c>
       <c r="I16" s="169">
-        <v>6500</v>
+        <f>6000+704+400</f>
+        <v>7104</v>
       </c>
       <c r="J16" s="169">
         <f>H16-I16</f>
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="K16" s="169"/>
       <c r="L16" s="169"/>
+      <c r="M16" s="53"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="171" t="s">
@@ -40146,10 +40176,12 @@
         <f t="shared" si="0"/>
         <v>7560</v>
       </c>
-      <c r="I17" s="169"/>
+      <c r="I17" s="169">
+        <v>7560</v>
+      </c>
       <c r="J17" s="169">
         <f t="shared" si="1"/>
-        <v>7560</v>
+        <v>0</v>
       </c>
       <c r="K17" s="169"/>
       <c r="L17" s="169"/>
@@ -40255,10 +40287,12 @@
         <f t="shared" si="0"/>
         <v>7006</v>
       </c>
-      <c r="I20" s="169"/>
+      <c r="I20" s="169">
+        <v>7006</v>
+      </c>
       <c r="J20" s="169">
         <f t="shared" si="1"/>
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="K20" s="169"/>
       <c r="L20" s="169"/>
@@ -40358,10 +40392,12 @@
         <f t="shared" si="0"/>
         <v>6700</v>
       </c>
-      <c r="I23" s="169"/>
+      <c r="I23" s="237">
+        <v>6700</v>
+      </c>
       <c r="J23" s="169">
         <f t="shared" si="1"/>
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="K23" s="169"/>
       <c r="L23" s="169"/>
@@ -40526,10 +40562,12 @@
         <f t="shared" si="0"/>
         <v>13805</v>
       </c>
-      <c r="I28" s="169"/>
+      <c r="I28" s="169">
+        <v>5000</v>
+      </c>
       <c r="J28" s="169">
         <f t="shared" si="1"/>
-        <v>13805</v>
+        <v>8805</v>
       </c>
       <c r="K28" s="169"/>
       <c r="L28" s="169"/>
@@ -40559,10 +40597,12 @@
         <f t="shared" si="0"/>
         <v>11504</v>
       </c>
-      <c r="I29" s="169"/>
+      <c r="I29" s="169">
+        <v>5900</v>
+      </c>
       <c r="J29" s="169">
         <f t="shared" si="1"/>
-        <v>11504</v>
+        <v>5604</v>
       </c>
       <c r="K29" s="169"/>
       <c r="L29" s="169"/>
@@ -40587,11 +40627,12 @@
         <v>27002</v>
       </c>
       <c r="I30" s="169">
-        <v>19302</v>
+        <f>19302+7700</f>
+        <v>27002</v>
       </c>
       <c r="J30" s="169">
         <f t="shared" si="1"/>
-        <v>7700</v>
+        <v>0</v>
       </c>
       <c r="K30" s="169"/>
       <c r="L30" s="169"/>
@@ -40654,10 +40695,12 @@
         <f t="shared" si="0"/>
         <v>7931</v>
       </c>
-      <c r="I32" s="169"/>
+      <c r="I32" s="169">
+        <v>7932</v>
+      </c>
       <c r="J32" s="169">
         <f t="shared" si="1"/>
-        <v>7931</v>
+        <v>-1</v>
       </c>
       <c r="K32" s="169"/>
       <c r="L32" s="169"/>
@@ -40687,10 +40730,12 @@
         <f t="shared" si="0"/>
         <v>10169</v>
       </c>
-      <c r="I33" s="169"/>
+      <c r="I33" s="169">
+        <v>6900</v>
+      </c>
       <c r="J33" s="169">
         <f>H33-I33</f>
-        <v>10169</v>
+        <v>3269</v>
       </c>
       <c r="K33" s="169"/>
       <c r="L33" s="169"/>
@@ -40726,10 +40771,12 @@
         <f t="shared" si="0"/>
         <v>8952</v>
       </c>
-      <c r="I34" s="169"/>
+      <c r="I34" s="169">
+        <v>7800</v>
+      </c>
       <c r="J34" s="169">
         <f t="shared" si="1"/>
-        <v>8952</v>
+        <v>1152</v>
       </c>
       <c r="K34" s="169"/>
       <c r="L34" s="169"/>
@@ -40862,10 +40909,12 @@
         <f t="shared" si="0"/>
         <v>10500</v>
       </c>
-      <c r="I38" s="169"/>
+      <c r="I38" s="169">
+        <v>5000</v>
+      </c>
       <c r="J38" s="169">
         <f>H38-I38</f>
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="K38" s="169"/>
       <c r="L38" s="169"/>
@@ -40928,11 +40977,11 @@
       </c>
       <c r="I40" s="192">
         <f t="shared" si="3"/>
-        <v>82601</v>
+        <v>178946</v>
       </c>
       <c r="J40" s="192">
         <f t="shared" si="3"/>
-        <v>194087</v>
+        <v>97742</v>
       </c>
       <c r="K40" s="192">
         <f t="shared" si="2"/>
@@ -41057,7 +41106,7 @@
       <c r="G47" s="200"/>
       <c r="H47" s="202">
         <f>I40</f>
-        <v>82601</v>
+        <v>178946</v>
       </c>
       <c r="I47" s="200"/>
       <c r="J47" s="200"/>
@@ -41304,15 +41353,23 @@
       <c r="L59" s="74"/>
     </row>
     <row r="60" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="224"/>
+      <c r="A60" s="224" t="s">
+        <v>403</v>
+      </c>
       <c r="B60" s="200"/>
-      <c r="C60" s="202"/>
+      <c r="C60" s="202">
+        <v>188088</v>
+      </c>
       <c r="D60" s="200"/>
       <c r="E60" s="200"/>
-      <c r="F60" s="224"/>
+      <c r="F60" s="224" t="s">
+        <v>403</v>
+      </c>
       <c r="G60" s="200"/>
       <c r="H60" s="202"/>
-      <c r="I60" s="202"/>
+      <c r="I60" s="202">
+        <v>188088</v>
+      </c>
       <c r="J60" s="225"/>
       <c r="K60" s="60"/>
       <c r="L60" s="74"/>
@@ -41355,26 +41412,26 @@
       </c>
       <c r="C63" s="209">
         <f>SUM(C57:C62)</f>
-        <v>16225</v>
+        <v>204313</v>
       </c>
       <c r="D63" s="209">
         <f>B63-C63</f>
-        <v>188088.25</v>
+        <v>0.25</v>
       </c>
       <c r="E63" s="209"/>
       <c r="F63" s="199"/>
       <c r="G63" s="199"/>
       <c r="H63" s="209">
         <f>H47+H49+H51+H53+H54</f>
-        <v>-362.75</v>
+        <v>95982.25</v>
       </c>
       <c r="I63" s="209">
         <f>SUM(I57:I62)</f>
-        <v>9325</v>
+        <v>197413</v>
       </c>
       <c r="J63" s="209">
         <f>H63-I63</f>
-        <v>-9687.75</v>
+        <v>-101430.75</v>
       </c>
       <c r="K63" s="96"/>
       <c r="L63" s="77"/>
@@ -41384,7 +41441,7 @@
       <c r="B64" s="198"/>
       <c r="C64" s="207">
         <f>C63-C57</f>
-        <v>6900</v>
+        <v>194988</v>
       </c>
       <c r="D64" s="198"/>
       <c r="E64" s="198"/>
@@ -41393,7 +41450,7 @@
       <c r="H64" s="198"/>
       <c r="I64" s="210">
         <f>I63-I57</f>
-        <v>0</v>
+        <v>188088</v>
       </c>
       <c r="J64" s="198"/>
       <c r="K64" s="79"/>
